--- a/data/outputs/OR_elsevier/39.xlsx
+++ b/data/outputs/OR_elsevier/39.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS48"/>
+  <dimension ref="A1:BU48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -931,6 +941,12 @@
           <t>2-s2.0-84929334215</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1154,6 +1170,12 @@
           <t>2-s2.0-84943357192</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1373,6 +1395,12 @@
           <t>2-s2.0-84943364607</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1588,6 +1616,12 @@
           <t>2-s2.0-84921434772</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1803,6 +1837,12 @@
           <t>2-s2.0-84928205938</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2018,6 +2058,12 @@
           <t>2-s2.0-84954368024</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2233,6 +2279,12 @@
           <t>2-s2.0-84943360213</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2447,6 +2499,12 @@
         <is>
           <t>2-s2.0-84921346911</t>
         </is>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -2655,6 +2713,12 @@
           <t>2-s2.0-84928107764</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2870,6 +2934,12 @@
           <t>2-s2.0-84921418842</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3088,6 +3158,12 @@
         <is>
           <t>2-s2.0-84938985432</t>
         </is>
+      </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -3296,6 +3372,12 @@
           <t>2-s2.0-84925400166</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3519,6 +3601,12 @@
           <t>2-s2.0-84925397677</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3734,6 +3822,12 @@
           <t>2-s2.0-84938968151</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3949,6 +4043,12 @@
           <t>2-s2.0-84925394388</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4168,6 +4268,12 @@
           <t>2-s2.0-84925356052</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4387,6 +4493,12 @@
           <t>2-s2.0-84925407858</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4602,6 +4714,12 @@
           <t>2-s2.0-84921435160</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4825,6 +4943,12 @@
           <t>2-s2.0-84954396628</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5040,6 +5164,12 @@
           <t>2-s2.0-84954391921</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5255,6 +5385,12 @@
           <t>2-s2.0-84949921240</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5478,6 +5614,12 @@
           <t>2-s2.0-84945231445</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5701,6 +5843,12 @@
           <t>2-s2.0-84938850596</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5916,6 +6064,12 @@
           <t>2-s2.0-84938979004</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6129,6 +6283,12 @@
           <t>2-s2.0-84938953656</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6344,6 +6504,12 @@
           <t>2-s2.0-84929298467</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6559,6 +6725,12 @@
           <t>2-s2.0-84921436003</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6770,6 +6942,12 @@
           <t>2-s2.0-84949641260</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6985,6 +7163,12 @@
           <t>2-s2.0-84949679278</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7207,6 +7391,12 @@
         <is>
           <t>2-s2.0-84943232962</t>
         </is>
+      </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -7415,6 +7605,12 @@
           <t>2-s2.0-84943223298</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7622,6 +7818,12 @@
           <t>2-s2.0-84929320529</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7833,6 +8035,12 @@
           <t>2-s2.0-84925355752</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8048,6 +8256,12 @@
           <t>2-s2.0-84954388124</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8263,6 +8477,12 @@
           <t>2-s2.0-84954363037</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8473,6 +8693,12 @@
         <is>
           <t>2-s2.0-84947969231</t>
         </is>
+      </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -8681,6 +8907,12 @@
           <t>2-s2.0-84978168191</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8892,6 +9124,12 @@
           <t>2-s2.0-84943354961</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9106,6 +9344,12 @@
         <is>
           <t>2-s2.0-84929516513</t>
         </is>
+      </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -9314,6 +9558,12 @@
           <t>2-s2.0-84929302534</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9529,6 +9779,12 @@
           <t>2-s2.0-84928156956</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9748,6 +10004,12 @@
           <t>2-s2.0-84928123011</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9963,6 +10225,12 @@
           <t>2-s2.0-84921342116</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10189,6 +10457,12 @@
         <is>
           <t>2-s2.0-84938968289</t>
         </is>
+      </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -10381,6 +10655,12 @@
           <t>2-s2.0-84938875218</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10592,6 +10872,12 @@
           <t>2-s2.0-84928104104</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10807,6 +11093,12 @@
           <t>2-s2.0-84928157188</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
